--- a/assignmentTwoPartOneA/function.xlsx
+++ b/assignmentTwoPartOneA/function.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Advanced Algorithms\assignmentTwoPartOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Advanced Algorithms\assignmentTwoPartOneA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE034A0E-E92A-455F-A339-3929627279A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3E5BC4-23C2-44E7-84ED-6AD177C4479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,19 +116,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -159,19 +153,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -204,16 +192,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>832790</c:v>
+                  <c:v>1102083</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11280680</c:v>
+                  <c:v>8804072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111095100</c:v>
+                  <c:v>98140482</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>511666280</c:v>
+                  <c:v>517071673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,19 +228,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -285,16 +267,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>938120</c:v>
+                  <c:v>641311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10552900</c:v>
+                  <c:v>8293258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105115060</c:v>
+                  <c:v>99051312</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>509008020</c:v>
+                  <c:v>531166119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -314,6 +296,21 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="727420848"/>
         <c:axId val="727417968"/>
@@ -332,10 +329,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -363,10 +361,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -379,16 +378,16 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -400,10 +399,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -428,20 +428,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -449,10 +435,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -480,10 +467,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -496,7 +484,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -511,10 +499,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -530,7 +519,19 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -554,8 +555,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -579,28 +581,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -663,83 +654,8 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -749,10 +665,88 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -760,36 +754,60 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -801,15 +819,18 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -817,15 +838,15 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -841,16 +862,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -862,7 +884,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -873,9 +895,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -886,17 +908,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -905,16 +928,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -923,7 +946,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -931,17 +954,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -950,14 +972,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -968,17 +990,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -987,14 +1008,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1005,8 +1026,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1016,15 +1038,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:plotArea>
   <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1032,16 +1069,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1054,17 +1092,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1073,19 +1111,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1094,10 +1125,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1109,8 +1140,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1120,7 +1152,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1128,9 +1160,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1141,18 +1173,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1464,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,13 +1524,13 @@
         <v>458</v>
       </c>
       <c r="B2">
-        <v>446708100</v>
+        <v>403646400</v>
       </c>
       <c r="C2">
-        <v>832790</v>
+        <v>1102083</v>
       </c>
       <c r="D2">
-        <v>938120</v>
+        <v>641311</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1505,13 +1538,13 @@
         <v>18864</v>
       </c>
       <c r="B3">
-        <v>10559164900</v>
+        <v>10117606700</v>
       </c>
       <c r="C3">
-        <v>11280680</v>
+        <v>8804072</v>
       </c>
       <c r="D3">
-        <v>10552900</v>
+        <v>8293258</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,10 +1552,10 @@
         <v>235460</v>
       </c>
       <c r="C4">
-        <v>111095100</v>
+        <v>98140482</v>
       </c>
       <c r="D4">
-        <v>105115060</v>
+        <v>99051312</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1530,10 +1563,10 @@
         <v>1107190</v>
       </c>
       <c r="C5">
-        <v>511666280</v>
+        <v>517071673</v>
       </c>
       <c r="D5">
-        <v>509008020</v>
+        <v>531166119</v>
       </c>
     </row>
   </sheetData>

--- a/assignmentTwoPartOneA/function.xlsx
+++ b/assignmentTwoPartOneA/function.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Advanced Algorithms\assignmentTwoPartOneA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3E5BC4-23C2-44E7-84ED-6AD177C4479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DBCEC0-A243-483A-843B-BD03D6091029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Linear</t>
   </si>
   <si>
-    <t>HashMap</t>
+    <t>HashSet</t>
   </si>
   <si>
-    <t>HashSet</t>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Size:</t>
+  </si>
+  <si>
+    <t>BBST</t>
   </si>
 </sst>
 </file>
@@ -103,6 +109,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Without linear</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -116,11 +147,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -139,96 +170,21 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HashSet</c:v>
+                  <c:v>BBST</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>458</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18864</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>235460</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1107190</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1102083</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8804072</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98140482</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>517071673</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FDFD-40AE-8DD9-05F2D08714CE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HashMap</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -262,21 +218,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>641311</c:v>
+                  <c:v>1035384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8293258</c:v>
+                  <c:v>11356871</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99051312</c:v>
+                  <c:v>195065371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>531166119</c:v>
+                  <c:v>734121097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -284,7 +240,157 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FDFD-40AE-8DD9-05F2D08714CE}"/>
+              <c16:uniqueId val="{00000006-9FD5-413F-BF4F-71FAD31D31FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18864</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>235460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1107190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>737903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8695989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133715863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>541051314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9FD5-413F-BF4F-71FAD31D31FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HashSet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18864</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>235460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1107190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>490883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13325199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93337815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>505758553</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9FD5-413F-BF4F-71FAD31D31FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -296,27 +402,105 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="727420848"/>
-        <c:axId val="727417968"/>
+        <c:axId val="919489328"/>
+        <c:axId val="919489808"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Linear</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>458</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>18864</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>235460</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1107190</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$B$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>388123500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6595297100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-9FD5-413F-BF4F-71FAD31D31FF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="727420848"/>
+        <c:axId val="919489328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -329,9 +513,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -343,7 +527,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>File size</a:t>
+                  <a:t>Size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -361,9 +545,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -378,14 +562,14 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -399,9 +583,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -414,7 +598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="727417968"/>
+        <c:crossAx val="919489808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -422,12 +606,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="727417968"/>
+        <c:axId val="919489808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -435,9 +633,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -449,7 +647,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Runtime</a:t>
+                  <a:t>Runrime</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -467,9 +665,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -484,7 +682,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -499,9 +697,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -514,24 +712,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="727420848"/>
+        <c:crossAx val="919489328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -539,7 +725,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -555,7 +741,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -582,11 +768,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -654,25 +840,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -680,7 +866,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -688,22 +874,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -711,16 +897,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -754,60 +940,46 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -819,34 +991,33 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -862,19 +1033,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -889,13 +1062,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -908,15 +1081,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -928,16 +1100,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -946,24 +1119,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -972,16 +1152,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -990,133 +1171,109 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1125,13 +1282,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1140,7 +1298,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1160,9 +1318,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1173,20 +1331,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1195,23 +1359,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605789</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>134167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>140697</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>121377</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1200680-8A05-E630-582B-8F59723688FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{815E3DB9-F202-5BC9-DA45-1055163DB361}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,78 +1659,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>458</v>
       </c>
       <c r="B2">
-        <v>403646400</v>
+        <v>388123500</v>
       </c>
       <c r="C2">
-        <v>1102083</v>
+        <v>1035384</v>
       </c>
       <c r="D2">
-        <v>641311</v>
+        <v>737903</v>
+      </c>
+      <c r="E2">
+        <v>490883</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>18864</v>
       </c>
       <c r="B3">
-        <v>10117606700</v>
+        <v>6595297100</v>
       </c>
       <c r="C3">
-        <v>8804072</v>
+        <v>11356871</v>
       </c>
       <c r="D3">
-        <v>8293258</v>
+        <v>8695989</v>
+      </c>
+      <c r="E3">
+        <v>13325199</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>235460</v>
       </c>
       <c r="C4">
-        <v>98140482</v>
+        <v>195065371</v>
       </c>
       <c r="D4">
-        <v>99051312</v>
+        <v>133715863</v>
+      </c>
+      <c r="E4">
+        <v>93337815</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1107190</v>
       </c>
       <c r="C5">
-        <v>517071673</v>
+        <v>734121097</v>
       </c>
       <c r="D5">
-        <v>531166119</v>
+        <v>541051314</v>
+      </c>
+      <c r="E5">
+        <v>505758553</v>
       </c>
     </row>
   </sheetData>
